--- a/data/trans_bre/P19C09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Edad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9486598979487113</v>
+        <v>-1.198258181767482</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.196390956507771</v>
+        <v>-1.290594874050778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.913366436769474</v>
+        <v>-3.884590603451218</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.740931146523199</v>
+        <v>-0.8175030000024189</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4099563945387448</v>
+        <v>-0.4926261280693507</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.7775407509139437</v>
+        <v>-0.7841650655295849</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.847455726760155</v>
+        <v>1.746913981571636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.060465466334661</v>
+        <v>3.362272802927322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9688100593901787</v>
+        <v>1.080844144661696</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7.049432224218129</v>
+        <v>6.311974060690227</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.933876654945943</v>
+        <v>2.57951777866431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5880371770036084</v>
+        <v>0.7215573785907826</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.484372858379549</v>
+        <v>-1.704491506149865</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1412002052790431</v>
+        <v>-0.2010698706410916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.91867612085259</v>
+        <v>-2.088726245482536</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5236997031135598</v>
+        <v>-0.596204584702929</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1247082019285333</v>
+        <v>-0.1725907023804204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4880250866852083</v>
+        <v>-0.5091910174733074</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.292446558234616</v>
+        <v>2.157509185360421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.90807322040744</v>
+        <v>3.912979181426004</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.336945963908438</v>
+        <v>2.399899128233695</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.099310204254446</v>
+        <v>1.69623893037334</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.830076867028032</v>
+        <v>3.514508861818682</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.33266325730256</v>
+        <v>1.157930303650792</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.63920394434457</v>
+        <v>-2.546516838902322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.2912154759232272</v>
+        <v>-0.3490592087682038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.361652917413605</v>
+        <v>-3.395160750534954</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.7082090011802511</v>
+        <v>-0.7368505605869927</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3992006044191295</v>
+        <v>-0.278857420230224</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7314143004558545</v>
+        <v>-0.7164060378967746</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.040778026533683</v>
+        <v>1.008000623426061</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.344061397778271</v>
+        <v>3.111897113147629</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7047480528276764</v>
+        <v>0.699392069735428</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.9259400499848285</v>
+        <v>0.7744190444193443</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.714740732133046</v>
+        <v>5.411333944134751</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3294686746290424</v>
+        <v>0.3725450354290052</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6699668406931004</v>
+        <v>-0.4048643977014819</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.8684661160867281</v>
+        <v>-0.7888831594782821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.470467538572806</v>
+        <v>-1.499270247114338</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3461058968141245</v>
+        <v>-0.2662872475372485</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5875710771733349</v>
+        <v>-0.5380711743117916</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5196832967952398</v>
+        <v>-0.5195967647139922</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.823927964408873</v>
+        <v>4.094782506162164</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.354426883493009</v>
+        <v>2.308506614046383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.195612115358843</v>
+        <v>2.249035034789191</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.373821959712514</v>
+        <v>5.767168643699014</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.288849150784096</v>
+        <v>3.967391996451703</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.968622891805315</v>
+        <v>1.883277117789741</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9914212500172135</v>
+        <v>-1.127791954397134</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.526345594978734</v>
+        <v>-1.508898265177915</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3635762027871288</v>
+        <v>-0.2915854013302661</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2481266143717982</v>
+        <v>-0.2871571430262647</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6274347956239987</v>
+        <v>-0.6287759112227089</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2598644594363412</v>
+        <v>-0.1933289320127334</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.697243992797133</v>
+        <v>5.828270967413876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.583432253941357</v>
+        <v>2.769946260897428</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.65962155279288</v>
+        <v>4.758628648741362</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.690566484757666</v>
+        <v>2.824911532200645</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.120240194778088</v>
+        <v>3.462680954623802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.218172236226283</v>
+        <v>5.739456810739898</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.300699687090545</v>
+        <v>-2.337973198875007</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.437001580664588</v>
+        <v>-5.625057331452292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.581973810086553</v>
+        <v>-2.306323819774544</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4250157424327736</v>
+        <v>-0.4012558878173883</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.836427500599239</v>
+        <v>-0.8163673980641658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7450318460366043</v>
+        <v>-0.751587279720626</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.564198699849045</v>
+        <v>5.088503652486913</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.176898296586576</v>
+        <v>1.45278839970548</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.363032314236279</v>
+        <v>2.514110413664843</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.139118691967039</v>
+        <v>2.102173604040568</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9096759979528849</v>
+        <v>0.9923894979806013</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.036177309506498</v>
+        <v>3.133137503661074</v>
       </c>
     </row>
     <row r="22">
@@ -1130,20 +1130,20 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.64666797530397</v>
+        <v>-11.35575125649652</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.476092783243415</v>
+        <v>1.868679072442441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.282273431335833</v>
+        <v>-7.976702574708322</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.7974221840189034</v>
+        <v>-0.8042872925107508</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>-0.913588214084416</v>
+        <v>-0.9086454653832909</v>
       </c>
     </row>
     <row r="24">
@@ -1154,20 +1154,20 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.025292610208297</v>
+        <v>0.9158882246087527</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.277434118768572</v>
+        <v>7.574688445365875</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6911511300218436</v>
+        <v>0.9274595421048591</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3736445235011934</v>
+        <v>0.2391750540602389</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>0.3904853266975581</v>
+        <v>0.8168544150468922</v>
       </c>
     </row>
     <row r="25">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.3849438721433618</v>
+        <v>-0.4273836560431329</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2806001856363817</v>
+        <v>0.3124989760362852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.019550867626841</v>
+        <v>-1.006099544300977</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1289162073795352</v>
+        <v>-0.1433943381155079</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1122660062569284</v>
+        <v>0.1346080271161089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3143184505990737</v>
+        <v>-0.3108869854138279</v>
       </c>
     </row>
     <row r="27">
@@ -1234,22 +1234,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.48421089501315</v>
+        <v>1.447621255241235</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.947569909347787</v>
+        <v>1.91796872150387</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7227605885128596</v>
+        <v>0.7430757128457233</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7200918368290076</v>
+        <v>0.6670432403385933</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.468948237204416</v>
+        <v>1.486176940064896</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3068883584756683</v>
+        <v>0.3146968637884939</v>
       </c>
     </row>
     <row r="28">
